--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,111 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>to become = to b***** to be</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>and = used to j***** two words</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>to be able to = to have the necessary a***** to do something</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>to be able to = to h***** the necessary ability to do something</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>to be able to = to have the n***** ability to do something</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>finally = after a l***** time</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>19/01/21</t>
-  </si>
-  <si>
-    <t>this = someone or something n***** in the place or time</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>20/01/21</t>
-  </si>
-  <si>
-    <t>these = plural form of *****</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>those = plurar form of *****</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>these = p***** form of this</t>
-  </si>
-  <si>
-    <t>plural</t>
-  </si>
-  <si>
-    <t>those = p***** form of that</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -252,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -569,274 +468,376 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
-      <selection activeCell="E13" pane="bottomLeft" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.65" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>to become = to b***** to be</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>begin</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>and = used to j***** two words</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>join</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>to be able to = to have the necessary a***** to do something</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>ability</t>
+        </is>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>to be able to = to h***** the necessary ability to do something</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
       </c>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>to be able to = to have the n***** ability to do something</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>necessary</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>finally = after a l***** time</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29" r="8" spans="1:7">
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>this = someone or something n***** in the place or time</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>these = plural form of *****</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>those = plurar form of *****</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>these = p***** form of this</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>plural</t>
+        </is>
+      </c>
+      <c r="G11" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7"/>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>those = p***** form of that</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>plural</t>
+        </is>
+      </c>
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -848,7 +849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -860,7 +861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -872,7 +873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -884,7 +885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -895,7 +896,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="179021" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,22 +536,22 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="E13" pane="bottomLeft" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,9 +588,9 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -549,9 +617,9 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -578,9 +646,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -607,9 +675,9 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -636,9 +704,9 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -667,7 +735,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>6</v>
+        <v>184</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -694,9 +762,9 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="8">
       <c r="A8" s="3" t="n">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
@@ -724,7 +792,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -752,7 +820,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
@@ -780,7 +848,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
@@ -808,7 +876,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -837,7 +905,7 @@
     <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -849,7 +917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -861,7 +929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -873,7 +941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -885,7 +953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -896,7 +964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="179021" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,22 +468,22 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
-      <selection activeCell="E13" pane="bottomLeft" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="2">
+    <row r="2" ht="27.65" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="5">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="6">
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29" r="8">
+    <row r="8" ht="29" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -905,7 +837,7 @@
     <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -917,7 +849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -929,7 +861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -941,7 +873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -953,7 +885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -964,7 +896,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="179021" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="E13" pane="bottomLeft" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -834,10 +902,9 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -849,7 +916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -861,7 +928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -873,7 +940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -885,7 +952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -896,7 +963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -534,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
@@ -902,6 +902,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="6" type="colorScale">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="179021" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,22 +536,22 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="E13" pane="bottomLeft" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -837,7 +905,7 @@
     <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -849,7 +917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -861,7 +929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -873,7 +941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -885,7 +953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -896,7 +964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="179021" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="0"/>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,22 +536,22 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="F13" pane="bottomLeft" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1">
+    <row customHeight="1" ht="28.95" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -834,10 +902,37 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>333</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>they = used to r***** to two or more people</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>refer</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200420</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -849,7 +944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -861,7 +956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -873,7 +968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -885,7 +980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -896,7 +991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="F13" pane="bottomLeft" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="8">
+    <row r="8" ht="28.95" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -930,9 +862,10 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -944,7 +877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -956,7 +889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -968,7 +901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -980,7 +913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -991,7 +924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,22 +536,22 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E15" pane="bottomLeft" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -862,10 +930,37 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>404</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>available = ready for immediate u*****</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -877,7 +972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -889,7 +984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -901,7 +996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -913,7 +1008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -924,7 +1019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E15" pane="bottomLeft" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="8">
+    <row r="8" ht="28.95" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -958,9 +890,10 @@
         </is>
       </c>
     </row>
+    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -972,7 +905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -984,7 +917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -996,7 +929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1008,7 +941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1019,7 +952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E15" pane="bottomLeft" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -890,10 +958,9 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -905,7 +972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -917,7 +984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -929,7 +996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -941,7 +1008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -952,7 +1019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -890,7 +890,91 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>504</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>to k***** = to have information in your mind</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>505</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>to know = to have i***** in your mind</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>506</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>to know = to have information in your m*****</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="18"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -974,7 +974,175 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>541</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>t***** = of or belonging to them</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>542</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>their = of or belonging to t*****</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>them</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="27.6" customHeight="1">
+      <c r="A20" t="n">
+        <v>543</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>will = used to talk about what is going to h***** in the future</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>happen</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="27.6" customHeight="1">
+      <c r="A21" t="n">
+        <v>544</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>will = used to talk about what is going to happen in the f*****</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="27.6" customHeight="1">
+      <c r="A22" t="n">
+        <v>545</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>will = the mental power used to control and direct your t***** and actions</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>thoughts</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="27.6" customHeight="1">
+      <c r="A23" t="n">
+        <v>546</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>will = the mental power used to control and direct your thoughts and a*****</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>actions</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="1"/>
+      <selection activeCell="D24" pane="bottomLeft" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1030,7 +1098,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1058,7 +1126,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1086,7 +1154,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1114,7 +1182,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1142,10 +1210,9 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1157,7 +1224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1169,7 +1236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1181,7 +1248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1193,7 +1260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1204,7 +1271,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="1"/>
-      <selection activeCell="D24" pane="bottomLeft" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="8">
+    <row r="8" ht="28.95" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1098,7 +1030,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1126,7 +1058,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1154,7 +1086,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1182,7 +1114,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1210,9 +1142,10 @@
         </is>
       </c>
     </row>
+    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1224,7 +1157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1236,7 +1169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1248,7 +1181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1260,7 +1193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1271,7 +1204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,189 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>to become = to b***** to be</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>and = used to j***** two words</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>to be able to = to have the necessary a***** to do something</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>to be able to = to h***** the necessary ability to do something</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>to be able to = to have the n***** ability to do something</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>finally = after a l***** time</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>19/01/21</t>
+  </si>
+  <si>
+    <t>this = someone or something n***** in the place or time</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>20/01/21</t>
+  </si>
+  <si>
+    <t>these = plural form of *****</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>those = plurar form of *****</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>these = p***** form of this</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>those = p***** form of that</t>
+  </si>
+  <si>
+    <t>they = used to r***** to two or more people</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>200420</t>
+  </si>
+  <si>
+    <t>available = ready for immediate u*****</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>to k***** = to have information in your mind</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>200519</t>
+  </si>
+  <si>
+    <t>to know = to have i***** in your mind</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>to know = to have information in your m*****</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>t***** = of or belonging to them</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>200520</t>
+  </si>
+  <si>
+    <t>their = of or belonging to t*****</t>
+  </si>
+  <si>
+    <t>them</t>
+  </si>
+  <si>
+    <t>will = used to talk about what is going to h***** in the future</t>
+  </si>
+  <si>
+    <t>happen</t>
+  </si>
+  <si>
+    <t>will = used to talk about what is going to happen in the f*****</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>will = the mental power used to control and direct your t***** and actions</t>
+  </si>
+  <si>
+    <t>thoughts</t>
+  </si>
+  <si>
+    <t>will = the mental power used to control and direct your thoughts and a*****</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +330,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -468,684 +647,494 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="1"/>
+      <selection activeCell="D24" pane="bottomLeft" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>to become = to b***** to be</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>begin</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>and = used to j***** two words</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>join</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>to be able to = to have the necessary a***** to do something</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>ability</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>to be able to = to h***** the necessary ability to do something</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
+      <c r="G5" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>to be able to = to have the n***** ability to do something</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>necessary</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>184</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>finally = after a l***** time</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>19/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="28.95" customHeight="1">
+      <c r="G7" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.95" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>this = someone or something n***** in the place or time</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>near</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>186</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>these = plural form of *****</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="n">
         <v>187</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>those = plurar form of *****</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>that</t>
-        </is>
-      </c>
-      <c r="G10" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>188</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>these = p***** form of this</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>plural</t>
-        </is>
-      </c>
-      <c r="G11" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>189</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>those = p***** form of that</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>plural</t>
-        </is>
-      </c>
-      <c r="G12" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="n">
         <v>333</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>they = used to r***** to two or more people</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>refer</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200420</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="n">
         <v>404</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>available = ready for immediate u*****</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="n">
         <v>504</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>to k***** = to have information in your mind</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>know</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="n">
         <v>505</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>to know = to have i***** in your mind</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="n">
         <v>506</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>to know = to have information in your m*****</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>mind</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="n">
         <v>541</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>t***** = of or belonging to them</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200520</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="n">
         <v>542</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>their = of or belonging to t*****</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>them</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>200520</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="27.6" customHeight="1">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="20" spans="1:7">
       <c r="A20" t="n">
         <v>543</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>will = used to talk about what is going to h***** in the future</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>happen</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>200520</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="27.6" customHeight="1">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="21" spans="1:7">
       <c r="A21" t="n">
         <v>544</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>will = used to talk about what is going to happen in the f*****</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>future</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>200520</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="27.6" customHeight="1">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="22" spans="1:7">
       <c r="A22" t="n">
         <v>545</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>will = the mental power used to control and direct your t***** and actions</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>thoughts</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>200520</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="27.6" customHeight="1">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="23" spans="1:7">
       <c r="A23" t="n">
         <v>546</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>will = the mental power used to control and direct your thoughts and a*****</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>actions</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>200520</t>
-        </is>
-      </c>
-    </row>
-    <row r="24"/>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1157,7 +1146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1169,7 +1158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1181,7 +1170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1193,7 +1182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1204,7 +1193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,189 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>to become = to b***** to be</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>and = used to j***** two words</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>to be able to = to have the necessary a***** to do something</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>to be able to = to h***** the necessary ability to do something</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>to be able to = to have the n***** ability to do something</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>finally = after a l***** time</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>19/01/21</t>
-  </si>
-  <si>
-    <t>this = someone or something n***** in the place or time</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>20/01/21</t>
-  </si>
-  <si>
-    <t>these = plural form of *****</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>those = plurar form of *****</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>these = p***** form of this</t>
-  </si>
-  <si>
-    <t>plural</t>
-  </si>
-  <si>
-    <t>those = p***** form of that</t>
-  </si>
-  <si>
-    <t>they = used to r***** to two or more people</t>
-  </si>
-  <si>
-    <t>refer</t>
-  </si>
-  <si>
-    <t>200420</t>
-  </si>
-  <si>
-    <t>available = ready for immediate u*****</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>to k***** = to have information in your mind</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>200519</t>
-  </si>
-  <si>
-    <t>to know = to have i***** in your mind</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>to know = to have information in your m*****</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>t***** = of or belonging to them</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>200520</t>
-  </si>
-  <si>
-    <t>their = of or belonging to t*****</t>
-  </si>
-  <si>
-    <t>them</t>
-  </si>
-  <si>
-    <t>will = used to talk about what is going to h***** in the future</t>
-  </si>
-  <si>
-    <t>happen</t>
-  </si>
-  <si>
-    <t>will = used to talk about what is going to happen in the f*****</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>will = the mental power used to control and direct your t***** and actions</t>
-  </si>
-  <si>
-    <t>thoughts</t>
-  </si>
-  <si>
-    <t>will = the mental power used to control and direct your thoughts and a*****</t>
-  </si>
-  <si>
-    <t>actions</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -330,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -645,496 +466,714 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="1"/>
-      <selection activeCell="D24" pane="bottomLeft" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>to become = to b***** to be</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>begin</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>and = used to j***** two words</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>join</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>to be able to = to have the necessary a***** to do something</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>ability</t>
+        </is>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>to be able to = to h***** the necessary ability to do something</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
       </c>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>to be able to = to have the n***** ability to do something</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>necessary</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="3" t="n">
         <v>184</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>finally = after a l***** time</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.95" r="8" spans="1:7">
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="28.95" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>this = someone or something n***** in the place or time</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="3" t="n">
         <v>186</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>these = plural form of *****</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="3" t="n">
         <v>187</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>those = plurar form of *****</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="3" t="n">
         <v>188</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>these = p***** form of this</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>plural</t>
+        </is>
+      </c>
+      <c r="G11" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="3" t="n">
         <v>189</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>those = p***** form of that</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>plural</t>
+        </is>
+      </c>
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="n">
         <v>333</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>they = used to r***** to two or more people</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>refer</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200420</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="n">
         <v>404</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>available = ready for immediate u*****</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="n">
         <v>504</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>to k***** = to have information in your mind</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="n">
         <v>505</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>to know = to have i***** in your mind</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="n">
         <v>506</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>to know = to have information in your m*****</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="n">
         <v>541</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>t***** = of or belonging to them</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="n">
         <v>542</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="20" spans="1:7">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>their = of or belonging to t*****</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>them</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>543</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="21" spans="1:7">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>will = used to talk about what is going to h***** in the future</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>happen</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>544</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="22" spans="1:7">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>will = used to talk about what is going to happen in the f*****</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>545</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="23" spans="1:7">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>will = the mental power used to control and direct your t***** and actions</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>thoughts</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>546</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>will = the mental power used to control and direct your thoughts and a*****</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>actions</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="27.6" customHeight="1">
+      <c r="A24" t="n">
+        <v>591</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>process = a series of actions taken in order to achieve a particular e*****</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>200530</t>
+        </is>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1146,7 +1185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1158,7 +1197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1170,7 +1209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1182,7 +1221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1193,7 +1232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1170,7 +1170,63 @@
         </is>
       </c>
     </row>
-    <row r="25"/>
+    <row r="25" ht="33" customHeight="1">
+      <c r="A25" t="n">
+        <v>608</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>structure = the arrangenment of and relations between the e***** of something complex</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>elements</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200531</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="41.4" customHeight="1">
+      <c r="A26" t="n">
+        <v>609</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>structure = the arrangenment of and relations between the elements of something c*****</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200531</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A17" ySplit="1"/>
+      <selection activeCell="E27" pane="bottomLeft" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1030,7 +1098,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1058,7 +1126,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1086,7 +1154,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1114,7 +1182,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1142,7 +1210,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24">
       <c r="A24" t="n">
         <v>591</v>
       </c>
@@ -1170,7 +1238,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="33" customHeight="1">
+    <row customHeight="1" ht="33" r="25">
       <c r="A25" t="n">
         <v>608</v>
       </c>
@@ -1198,7 +1266,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="26">
       <c r="A26" t="n">
         <v>609</v>
       </c>
@@ -1226,10 +1294,9 @@
         </is>
       </c>
     </row>
-    <row r="27"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1241,7 +1308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1253,7 +1320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1265,7 +1332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1277,7 +1344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1288,7 +1355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A17" ySplit="1"/>
-      <selection activeCell="E27" pane="bottomLeft" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="8">
+    <row r="8" ht="28.95" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1098,7 +1030,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1126,7 +1058,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1154,7 +1086,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1182,7 +1114,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1210,7 +1142,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>591</v>
       </c>
@@ -1238,7 +1170,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33" r="25">
+    <row r="25" ht="33" customHeight="1">
       <c r="A25" t="n">
         <v>608</v>
       </c>
@@ -1266,7 +1198,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="26">
+    <row r="26" ht="41.4" customHeight="1">
       <c r="A26" t="n">
         <v>609</v>
       </c>
@@ -1294,9 +1226,10 @@
         </is>
       </c>
     </row>
+    <row r="27"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1308,7 +1241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1320,7 +1253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1332,7 +1265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1344,7 +1277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1355,7 +1288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>structure = the arrangenment of and relations between the elements of something c*****</t>
+          <t>structure = the arrangenment of and relations between the elements of something *****x</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1226,7 +1226,203 @@
         </is>
       </c>
     </row>
-    <row r="27"/>
+    <row r="27" ht="41.4" customHeight="1">
+      <c r="A27" t="n">
+        <v>630</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>a/an = before a ***** shows that was is referred to is not already known to the speaker</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="27.6" customHeight="1">
+      <c r="A28" t="n">
+        <v>631</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>a/an = before a noun shows that was is r***** to is not already known to the speaker</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>referred</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="41.4" customHeight="1">
+      <c r="A29" t="n">
+        <v>632</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>a/an = before a noun shows that was is referred to is not already k***** to the speaker</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>known</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="41.4" customHeight="1">
+      <c r="A30" t="n">
+        <v>633</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>a/an = before a noun shows that was is referred to is ***** already known to the speaker</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="27.6" customHeight="1">
+      <c r="A31" t="n">
+        <v>634</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>the = before a ***** shows that was is referred to is already known to the speaker</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="27.6" customHeight="1">
+      <c r="A32" t="n">
+        <v>635</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>the = before a noun shows that was is r***** to is already known to the speaker</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>referred</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="27.6" customHeight="1">
+      <c r="A33" t="n">
+        <v>636</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>the = before a noun shows that was is referred to is already k***** to the speaker</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>known</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1422,7 +1422,119 @@
         </is>
       </c>
     </row>
-    <row r="34"/>
+    <row r="34" ht="27.6" customHeight="1">
+      <c r="A34" t="n">
+        <v>682</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>would = used to refer to the ***** from the view of the past</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="27.6" customHeight="1">
+      <c r="A35" t="n">
+        <v>683</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>would = used to refer to the future from the view of the *****</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>past</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>720</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>moment = a very brief period of *****</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>721</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>***** = a very brief period of time</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>moment</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1534,7 +1534,63 @@
         </is>
       </c>
     </row>
-    <row r="38"/>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>760</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>system = a set of things working t*****</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>together</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>761</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>s***** = a set of things working together</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,22 +536,22 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A32" ySplit="1"/>
+      <selection activeCell="E37" pane="bottomLeft" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1030,7 +1098,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1058,7 +1126,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1086,7 +1154,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1114,7 +1182,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1142,7 +1210,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24">
       <c r="A24" t="n">
         <v>591</v>
       </c>
@@ -1170,7 +1238,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="33" customHeight="1">
+    <row customHeight="1" ht="33" r="25">
       <c r="A25" t="n">
         <v>608</v>
       </c>
@@ -1198,7 +1266,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="26">
       <c r="A26" t="n">
         <v>609</v>
       </c>
@@ -1226,7 +1294,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="27">
       <c r="A27" t="n">
         <v>630</v>
       </c>
@@ -1254,7 +1322,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="28">
       <c r="A28" t="n">
         <v>631</v>
       </c>
@@ -1282,7 +1350,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="29">
       <c r="A29" t="n">
         <v>632</v>
       </c>
@@ -1310,7 +1378,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="30">
       <c r="A30" t="n">
         <v>633</v>
       </c>
@@ -1338,7 +1406,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="31">
       <c r="A31" t="n">
         <v>634</v>
       </c>
@@ -1366,7 +1434,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>635</v>
       </c>
@@ -1394,7 +1462,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="33">
       <c r="A33" t="n">
         <v>636</v>
       </c>
@@ -1422,7 +1490,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="34">
       <c r="A34" t="n">
         <v>682</v>
       </c>
@@ -1450,7 +1518,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="35">
       <c r="A35" t="n">
         <v>683</v>
       </c>
@@ -1593,7 +1661,7 @@
     <row r="40"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1605,7 +1673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1617,7 +1685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1629,7 +1697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1641,7 +1709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1652,7 +1720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,22 +468,22 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A32" ySplit="1"/>
-      <selection activeCell="E37" pane="bottomLeft" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="8">
+    <row r="8" ht="28.95" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1098,7 +1030,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1126,7 +1058,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1154,7 +1086,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1182,7 +1114,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1210,7 +1142,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>591</v>
       </c>
@@ -1238,7 +1170,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33" r="25">
+    <row r="25" ht="33" customHeight="1">
       <c r="A25" t="n">
         <v>608</v>
       </c>
@@ -1266,7 +1198,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="26">
+    <row r="26" ht="41.4" customHeight="1">
       <c r="A26" t="n">
         <v>609</v>
       </c>
@@ -1294,7 +1226,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="27">
+    <row r="27" ht="41.4" customHeight="1">
       <c r="A27" t="n">
         <v>630</v>
       </c>
@@ -1322,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="28">
+    <row r="28" ht="27.6" customHeight="1">
       <c r="A28" t="n">
         <v>631</v>
       </c>
@@ -1350,7 +1282,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="29">
+    <row r="29" ht="41.4" customHeight="1">
       <c r="A29" t="n">
         <v>632</v>
       </c>
@@ -1378,7 +1310,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="30">
+    <row r="30" ht="41.4" customHeight="1">
       <c r="A30" t="n">
         <v>633</v>
       </c>
@@ -1406,7 +1338,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="31">
+    <row r="31" ht="27.6" customHeight="1">
       <c r="A31" t="n">
         <v>634</v>
       </c>
@@ -1434,7 +1366,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>635</v>
       </c>
@@ -1462,7 +1394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="33">
+    <row r="33" ht="27.6" customHeight="1">
       <c r="A33" t="n">
         <v>636</v>
       </c>
@@ -1490,7 +1422,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="34">
+    <row r="34" ht="27.6" customHeight="1">
       <c r="A34" t="n">
         <v>682</v>
       </c>
@@ -1518,7 +1450,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="35">
+    <row r="35" ht="27.6" customHeight="1">
       <c r="A35" t="n">
         <v>683</v>
       </c>
@@ -1661,7 +1593,7 @@
     <row r="40"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1673,7 +1605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1685,7 +1617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1697,7 +1629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1709,7 +1641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1720,7 +1652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A32" ySplit="1"/>
-      <selection activeCell="E37" pane="bottomLeft" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="8">
+    <row r="8" ht="28.95" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1098,7 +1030,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1126,7 +1058,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1154,7 +1086,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1182,7 +1114,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1210,7 +1142,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>591</v>
       </c>
@@ -1238,7 +1170,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33" r="25">
+    <row r="25" ht="33" customHeight="1">
       <c r="A25" t="n">
         <v>608</v>
       </c>
@@ -1266,7 +1198,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="26">
+    <row r="26" ht="41.4" customHeight="1">
       <c r="A26" t="n">
         <v>609</v>
       </c>
@@ -1294,278 +1226,278 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="27">
+    <row r="27" ht="41.4" customHeight="1">
       <c r="A27" t="n">
+        <v>819</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>s***** = the arrangenment of and relations between the elements of something complex</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="41.4" customHeight="1">
+      <c r="A28" t="n">
         <v>630</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>a/an = before a ***** shows that was is referred to is not already known to the speaker</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>noun</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>200615</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="28">
-      <c r="A28" t="n">
+    <row r="29" ht="27.6" customHeight="1">
+      <c r="A29" t="n">
         <v>631</v>
       </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>a/an = before a noun shows that was is r***** to is not already known to the speaker</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>referred</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>200615</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="29">
-      <c r="A29" t="n">
+    <row r="30" ht="41.4" customHeight="1">
+      <c r="A30" t="n">
         <v>632</v>
       </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>a/an = before a noun shows that was is referred to is not already k***** to the speaker</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>known</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>200615</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="30">
-      <c r="A30" t="n">
+    <row r="31" ht="41.4" customHeight="1">
+      <c r="A31" t="n">
         <v>633</v>
       </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>a/an = before a noun shows that was is referred to is ***** already known to the speaker</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>200615</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="31">
-      <c r="A31" t="n">
+    <row r="32" ht="27.6" customHeight="1">
+      <c r="A32" t="n">
         <v>634</v>
       </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>the = before a ***** shows that was is referred to is already known to the speaker</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>noun</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>200615</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
-      <c r="A32" t="n">
+    <row r="33" ht="27.6" customHeight="1">
+      <c r="A33" t="n">
         <v>635</v>
       </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>the = before a noun shows that was is r***** to is already known to the speaker</t>
         </is>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>referred</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>200615</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="33">
-      <c r="A33" t="n">
+    <row r="34" ht="27.6" customHeight="1">
+      <c r="A34" t="n">
         <v>636</v>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>the = before a noun shows that was is referred to is already k***** to the speaker</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>known</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>200615</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="34">
-      <c r="A34" t="n">
+    <row r="35" ht="27.6" customHeight="1">
+      <c r="A35" t="n">
         <v>682</v>
       </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>would = used to refer to the ***** from the view of the past</t>
         </is>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>future</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>200617</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="35">
-      <c r="A35" t="n">
+    <row r="36" ht="27.6" customHeight="1">
+      <c r="A36" t="n">
         <v>683</v>
       </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>would = used to refer to the future from the view of the *****</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>past</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>200617</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>720</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>moment = a very brief period of *****</t>
-        </is>
-      </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t>time</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1576,7 +1508,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1588,12 +1520,12 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>***** = a very brief period of time</t>
+          <t>moment = a very brief period of *****</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>moment</t>
+          <t>time</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1604,7 +1536,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>760</v>
+        <v>721</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1616,52 +1548,220 @@
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>system = a set of things working t*****</t>
+          <t>***** = a very brief period of time</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>moment</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>200623</t>
+          <t>200617</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>760</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>system = a set of things working t*****</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>together</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
         <v>761</v>
       </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>s***** = a set of things working together</t>
         </is>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>200623</t>
         </is>
       </c>
     </row>
-    <row r="40"/>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>799</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>***** = toward a higher place</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>800</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>up = t***** a higher place</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>801</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>up = toward a h***** place</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>802</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>***** = in direction of, in relation to</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>200713</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="27.6" customHeight="1">
+      <c r="A45" t="n">
+        <v>827</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>a***** = a detailed examination of the elements or structure of something</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>200714</t>
+        </is>
+      </c>
+    </row>
+    <row r="46"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1673,7 +1773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1685,7 +1785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1697,7 +1797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1709,7 +1809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1720,7 +1820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1758,7 +1758,91 @@
         </is>
       </c>
     </row>
-    <row r="46"/>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>904</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>to look = to direct the eyes ***** something</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>200721</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>905</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>to see = to perceive with the *****s</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>eyes</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>200721</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>906</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>to view = to ***** at attentively</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>200721</t>
+        </is>
+      </c>
+    </row>
+    <row r="49"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A38" ySplit="1"/>
+      <selection activeCell="E49" pane="bottomLeft" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1030,7 +1098,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1058,7 +1126,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1086,7 +1154,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1114,7 +1182,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1142,7 +1210,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24">
       <c r="A24" t="n">
         <v>591</v>
       </c>
@@ -1170,7 +1238,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="33" customHeight="1">
+    <row customHeight="1" ht="33" r="25">
       <c r="A25" t="n">
         <v>608</v>
       </c>
@@ -1198,7 +1266,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="26">
       <c r="A26" t="n">
         <v>609</v>
       </c>
@@ -1226,7 +1294,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="27">
       <c r="A27" t="n">
         <v>819</v>
       </c>
@@ -1254,7 +1322,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="28">
       <c r="A28" t="n">
         <v>630</v>
       </c>
@@ -1282,7 +1350,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="29">
       <c r="A29" t="n">
         <v>631</v>
       </c>
@@ -1310,7 +1378,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="30">
       <c r="A30" t="n">
         <v>632</v>
       </c>
@@ -1338,7 +1406,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="31">
       <c r="A31" t="n">
         <v>633</v>
       </c>
@@ -1366,7 +1434,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>634</v>
       </c>
@@ -1394,7 +1462,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="33">
       <c r="A33" t="n">
         <v>635</v>
       </c>
@@ -1422,7 +1490,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="34">
       <c r="A34" t="n">
         <v>636</v>
       </c>
@@ -1450,7 +1518,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="35">
       <c r="A35" t="n">
         <v>682</v>
       </c>
@@ -1478,7 +1546,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="36">
       <c r="A36" t="n">
         <v>683</v>
       </c>
@@ -1730,7 +1798,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="45">
       <c r="A45" t="n">
         <v>827</v>
       </c>
@@ -1842,10 +1910,9 @@
         </is>
       </c>
     </row>
-    <row r="49"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1857,7 +1924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1869,7 +1936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1881,7 +1948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1893,7 +1960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1904,7 +1971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A38" ySplit="1"/>
-      <selection activeCell="E49" pane="bottomLeft" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="8">
+    <row r="8" ht="28.95" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1098,7 +1030,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1126,7 +1058,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1154,7 +1086,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1182,7 +1114,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1210,7 +1142,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>591</v>
       </c>
@@ -1238,7 +1170,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33" r="25">
+    <row r="25" ht="33" customHeight="1">
       <c r="A25" t="n">
         <v>608</v>
       </c>
@@ -1266,7 +1198,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="26">
+    <row r="26" ht="41.4" customHeight="1">
       <c r="A26" t="n">
         <v>609</v>
       </c>
@@ -1294,7 +1226,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="27">
+    <row r="27" ht="41.4" customHeight="1">
       <c r="A27" t="n">
         <v>819</v>
       </c>
@@ -1322,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="28">
+    <row r="28" ht="41.4" customHeight="1">
       <c r="A28" t="n">
         <v>630</v>
       </c>
@@ -1350,7 +1282,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="29">
+    <row r="29" ht="27.6" customHeight="1">
       <c r="A29" t="n">
         <v>631</v>
       </c>
@@ -1378,7 +1310,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="30">
+    <row r="30" ht="41.4" customHeight="1">
       <c r="A30" t="n">
         <v>632</v>
       </c>
@@ -1406,7 +1338,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="31">
+    <row r="31" ht="41.4" customHeight="1">
       <c r="A31" t="n">
         <v>633</v>
       </c>
@@ -1434,7 +1366,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>634</v>
       </c>
@@ -1462,7 +1394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="33">
+    <row r="33" ht="27.6" customHeight="1">
       <c r="A33" t="n">
         <v>635</v>
       </c>
@@ -1490,7 +1422,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="34">
+    <row r="34" ht="27.6" customHeight="1">
       <c r="A34" t="n">
         <v>636</v>
       </c>
@@ -1518,7 +1450,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="35">
+    <row r="35" ht="27.6" customHeight="1">
       <c r="A35" t="n">
         <v>682</v>
       </c>
@@ -1546,7 +1478,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="36">
+    <row r="36" ht="27.6" customHeight="1">
       <c r="A36" t="n">
         <v>683</v>
       </c>
@@ -1798,7 +1730,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="45">
+    <row r="45" ht="27.6" customHeight="1">
       <c r="A45" t="n">
         <v>827</v>
       </c>
@@ -1910,9 +1842,10 @@
         </is>
       </c>
     </row>
+    <row r="49"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1924,7 +1857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1936,7 +1869,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1948,7 +1881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1960,7 +1893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1971,7 +1904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1842,7 +1842,35 @@
         </is>
       </c>
     </row>
-    <row r="49"/>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>factor = influence that c***** to a result</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>contributes</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="50"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A38" ySplit="1"/>
+      <selection activeCell="D50" pane="bottomLeft" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="8">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1030,7 +1098,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1058,7 +1126,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1086,7 +1154,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1114,7 +1182,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1142,7 +1210,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24">
       <c r="A24" t="n">
         <v>591</v>
       </c>
@@ -1170,7 +1238,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="33" customHeight="1">
+    <row customHeight="1" ht="33" r="25">
       <c r="A25" t="n">
         <v>608</v>
       </c>
@@ -1198,7 +1266,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="26">
       <c r="A26" t="n">
         <v>609</v>
       </c>
@@ -1226,7 +1294,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="27">
       <c r="A27" t="n">
         <v>819</v>
       </c>
@@ -1254,7 +1322,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="28">
       <c r="A28" t="n">
         <v>630</v>
       </c>
@@ -1282,7 +1350,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="29">
       <c r="A29" t="n">
         <v>631</v>
       </c>
@@ -1310,7 +1378,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="30">
       <c r="A30" t="n">
         <v>632</v>
       </c>
@@ -1338,7 +1406,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="31">
       <c r="A31" t="n">
         <v>633</v>
       </c>
@@ -1366,7 +1434,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>634</v>
       </c>
@@ -1394,7 +1462,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="33">
       <c r="A33" t="n">
         <v>635</v>
       </c>
@@ -1422,7 +1490,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="34">
       <c r="A34" t="n">
         <v>636</v>
       </c>
@@ -1450,7 +1518,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="35">
       <c r="A35" t="n">
         <v>682</v>
       </c>
@@ -1478,7 +1546,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="36">
       <c r="A36" t="n">
         <v>683</v>
       </c>
@@ -1730,7 +1798,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="45">
       <c r="A45" t="n">
         <v>827</v>
       </c>
@@ -1870,10 +1938,9 @@
         </is>
       </c>
     </row>
-    <row r="50"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1885,7 +1952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1897,7 +1964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1909,7 +1976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1921,7 +1988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1932,7 +1999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A38" ySplit="1"/>
-      <selection activeCell="D50" pane="bottomLeft" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>179</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>180</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>181</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>182</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>183</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="8">
+    <row r="8" ht="28.95" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>185</v>
       </c>
@@ -1098,7 +1030,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>543</v>
       </c>
@@ -1126,7 +1058,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>544</v>
       </c>
@@ -1154,7 +1086,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>545</v>
       </c>
@@ -1182,7 +1114,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>546</v>
       </c>
@@ -1210,7 +1142,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>591</v>
       </c>
@@ -1238,7 +1170,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33" r="25">
+    <row r="25" ht="33" customHeight="1">
       <c r="A25" t="n">
         <v>608</v>
       </c>
@@ -1266,7 +1198,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="26">
+    <row r="26" ht="41.4" customHeight="1">
       <c r="A26" t="n">
         <v>609</v>
       </c>
@@ -1294,7 +1226,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="27">
+    <row r="27" ht="41.4" customHeight="1">
       <c r="A27" t="n">
         <v>819</v>
       </c>
@@ -1322,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="28">
+    <row r="28" ht="41.4" customHeight="1">
       <c r="A28" t="n">
         <v>630</v>
       </c>
@@ -1350,7 +1282,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="29">
+    <row r="29" ht="27.6" customHeight="1">
       <c r="A29" t="n">
         <v>631</v>
       </c>
@@ -1378,7 +1310,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="30">
+    <row r="30" ht="41.4" customHeight="1">
       <c r="A30" t="n">
         <v>632</v>
       </c>
@@ -1406,7 +1338,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="31">
+    <row r="31" ht="41.4" customHeight="1">
       <c r="A31" t="n">
         <v>633</v>
       </c>
@@ -1434,7 +1366,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>634</v>
       </c>
@@ -1462,7 +1394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="33">
+    <row r="33" ht="27.6" customHeight="1">
       <c r="A33" t="n">
         <v>635</v>
       </c>
@@ -1490,7 +1422,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="34">
+    <row r="34" ht="27.6" customHeight="1">
       <c r="A34" t="n">
         <v>636</v>
       </c>
@@ -1518,7 +1450,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="35">
+    <row r="35" ht="27.6" customHeight="1">
       <c r="A35" t="n">
         <v>682</v>
       </c>
@@ -1546,7 +1478,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="36">
+    <row r="36" ht="27.6" customHeight="1">
       <c r="A36" t="n">
         <v>683</v>
       </c>
@@ -1798,7 +1730,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="45">
+    <row r="45" ht="27.6" customHeight="1">
       <c r="A45" t="n">
         <v>827</v>
       </c>
@@ -1938,9 +1870,206 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>to ***** = to move toward something</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>come</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>to come = to m***** toward something</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>to come = to move ***** something</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>to ***** = to go in a specified direction</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>to move = to go in a specified d*****</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>movement = c*****ing physical location</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>changing</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>motion = c*****ing physical location</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>changing</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>200818</t>
+        </is>
+      </c>
+    </row>
+    <row r="57"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1952,7 +2081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1964,7 +2093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1976,7 +2105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1988,7 +2117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1999,7 +2128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,11 +534,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -2066,7 +2134,146 @@
         </is>
       </c>
     </row>
-    <row r="57"/>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>p***** = used to express possibility</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>perhaps</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>perhaps = used to express p*****</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t>possibility</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>o***** = a thing that may be chosen</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>option</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>option = a thing that ***** be chosen</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>option = a thing that may be *****n</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>chosen</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
@@ -2274,6 +2206,7 @@
         </is>
       </c>
     </row>
+    <row r="62"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -2262,7 +2262,91 @@
         </is>
       </c>
     </row>
-    <row r="64"/>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t>***** = person who leads a group</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>leader</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t>leader = p***** who leads a group</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t>leader = person who l***** a group</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>leads</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="67"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
@@ -2346,7 +2414,6 @@
         </is>
       </c>
     </row>
-    <row r="67"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
@@ -2414,6 +2346,7 @@
         </is>
       </c>
     </row>
+    <row r="67"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC3E32F-F940-4394-930D-8C9068CD1E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -292,9 +298,6 @@
     <t>200623</t>
   </si>
   <si>
-    <t>s***** = a set of things working together</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
@@ -458,35 +461,53 @@
   </si>
   <si>
     <t>leads</t>
+  </si>
+  <si>
+    <t>s***** = an unspecified amount</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>201125</t>
+  </si>
+  <si>
+    <t>some = an unspecified a*****</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>s*****m = a set of things working together</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -600,51 +621,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -910,29 +940,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A50" ySplit="1"/>
-      <selection activeCell="D67" pane="bottomLeft" sqref="D67"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,11 +981,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>179</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -971,16 +997,16 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="n"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>180</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -992,16 +1018,16 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="n"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>181</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1013,16 +1039,16 @@
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="n"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>182</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1034,16 +1060,16 @@
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="n"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>183</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1055,16 +1081,16 @@
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6" t="n"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>184</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1076,16 +1102,16 @@
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="n"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="8" spans="1:7">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>185</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1101,11 +1127,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>186</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1121,11 +1147,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>187</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1141,11 +1167,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>188</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1161,11 +1187,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>189</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1181,11 +1207,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>333</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -1201,11 +1227,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>404</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
@@ -1221,11 +1247,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>504</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
@@ -1241,11 +1267,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>505</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -1261,11 +1287,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>506</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
@@ -1281,11 +1307,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>541</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
@@ -1301,11 +1327,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>542</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -1321,11 +1347,11 @@
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20" spans="1:7">
-      <c r="A20" t="n">
+    <row r="20" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>543</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -1341,11 +1367,11 @@
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21" spans="1:7">
-      <c r="A21" t="n">
+    <row r="21" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>544</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -1361,11 +1387,11 @@
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22" spans="1:7">
-      <c r="A22" t="n">
+    <row r="22" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>545</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -1381,11 +1407,11 @@
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23" spans="1:7">
-      <c r="A23" t="n">
+    <row r="23" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>546</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -1401,11 +1427,11 @@
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24" spans="1:7">
-      <c r="A24" t="n">
+    <row r="24" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>591</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1421,11 +1447,11 @@
         <v>60</v>
       </c>
     </row>
-    <row customHeight="1" ht="33" r="25" spans="1:7">
-      <c r="A25" t="n">
+    <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>608</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1441,11 +1467,11 @@
         <v>63</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="26" spans="1:7">
-      <c r="A26" t="n">
+    <row r="26" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>609</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -1461,11 +1487,11 @@
         <v>63</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="27" spans="1:7">
-      <c r="A27" t="n">
+    <row r="27" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>819</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -1481,11 +1507,11 @@
         <v>68</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="28" spans="1:7">
-      <c r="A28" t="n">
+    <row r="28" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>630</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -1501,11 +1527,11 @@
         <v>71</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="29" spans="1:7">
-      <c r="A29" t="n">
+    <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>631</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -1521,11 +1547,11 @@
         <v>71</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="30" spans="1:7">
-      <c r="A30" t="n">
+    <row r="30" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>632</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -1541,11 +1567,11 @@
         <v>71</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="31" spans="1:7">
-      <c r="A31" t="n">
+    <row r="31" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>633</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -1561,11 +1587,11 @@
         <v>71</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32" spans="1:7">
-      <c r="A32" t="n">
+    <row r="32" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>634</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -1581,11 +1607,11 @@
         <v>71</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="33" spans="1:7">
-      <c r="A33" t="n">
+    <row r="33" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>635</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -1601,11 +1627,11 @@
         <v>71</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="34" spans="1:7">
-      <c r="A34" t="n">
+    <row r="34" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>636</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -1621,11 +1647,11 @@
         <v>71</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="35" spans="1:7">
-      <c r="A35" t="n">
+    <row r="35" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>682</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -1641,11 +1667,11 @@
         <v>82</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="36" spans="1:7">
-      <c r="A36" t="n">
+    <row r="36" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>683</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -1661,11 +1687,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>720</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -1681,11 +1707,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>721</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -1701,11 +1727,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>760</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -1721,550 +1747,589 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>761</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>799</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>800</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="G42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>801</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>802</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="45" spans="1:7">
-      <c r="A45" t="n">
+    <row r="45" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>827</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="G45" t="s">
         <v>102</v>
       </c>
-      <c r="G45" t="s">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>904</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="n">
-        <v>904</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>905</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="n">
-        <v>905</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>906</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="n">
-        <v>906</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1022</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="G49" t="s">
         <v>111</v>
       </c>
-      <c r="G49" t="s">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1096</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="n">
-        <v>1096</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="G50" t="s">
         <v>114</v>
       </c>
-      <c r="G50" t="s">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1097</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="n">
-        <v>1097</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="G51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1098</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="n">
-        <v>1098</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1099</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="n">
-        <v>1099</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1100</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="G54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1101</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="n">
-        <v>1101</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1102</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="n">
-        <v>1102</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1149</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="n">
-        <v>1149</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="G57" t="s">
         <v>126</v>
       </c>
-      <c r="G57" t="s">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1150</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="G58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1151</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="n">
-        <v>1151</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="G59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1152</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="n">
-        <v>1152</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="G60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1153</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="n">
-        <v>1153</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="G61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1172</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="62" spans="1:7">
-      <c r="A62" t="n">
-        <v>1172</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="G62" t="s">
         <v>137</v>
       </c>
-      <c r="G62" t="s">
+    </row>
+    <row r="63" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1173</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="63" spans="1:7">
-      <c r="A63" t="n">
-        <v>1173</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="G63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1227</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="n">
-        <v>1227</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="G64" t="s">
         <v>142</v>
       </c>
-      <c r="G64" t="s">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1228</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="n">
-        <v>1228</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="G65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1229</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="n">
-        <v>1229</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="G66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1319</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7"/>
+      <c r="E67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1320</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2276,7 +2341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B13:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2288,7 +2353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10 G13:G1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2300,7 +2365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2312,7 +2377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2323,7 +2388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -469,8 +469,8 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1903,7 +1903,7 @@
         <v>1097</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +602,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>to become = to b***** to be</t>
+          <t>to become = to b**** to be</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -563,7 +631,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>and = used to j***** two words</t>
+          <t>and = used to j*** two words</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -592,7 +660,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>to be able to = to have the necessary a***** to do something</t>
+          <t>to be able to = to have the necessary a******* to do something</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
@@ -621,7 +689,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>to be able to = to h***** the necessary ability to do something</t>
+          <t>to be able to = to h*** the necessary ability to do something</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -650,7 +718,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>to be able to = to have the n***** ability to do something</t>
+          <t>to be able to = to have the n************** ability to do something</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -679,7 +747,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>finally = after a l***** time</t>
+          <t>finally = after a l*** time</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -708,7 +776,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>this = someone or something n***** in the place or time</t>
+          <t>this = someone or something n*** in the place or time</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -736,7 +804,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>these = plural form of *****</t>
+          <t>these = plural form of ****</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -764,7 +832,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>those = plurar form of *****</t>
+          <t>those = plurar form of ****</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -848,7 +916,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>they = used to r***** to two or more people</t>
+          <t>they = used to r**** to two or more people</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -876,7 +944,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>available = ready for immediate u*****</t>
+          <t>available = ready for immediate u**</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -904,7 +972,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>to k***** = to have information in your mind</t>
+          <t>to k*** = to have information in your mind</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -932,7 +1000,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>to know = to have i***** in your mind</t>
+          <t>to know = to have i********** in your mind</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -960,7 +1028,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>to know = to have information in your m*****</t>
+          <t>to know = to have information in your m***</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -988,7 +1056,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>t***** = of or belonging to them</t>
+          <t>t**** = of or belonging to them</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1016,7 +1084,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>their = of or belonging to t*****</t>
+          <t>their = of or belonging to t***</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1044,7 +1112,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>will = used to talk about what is going to h***** in the future</t>
+          <t>w***** = used to talk about what is going to h***** in the future</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1072,7 +1140,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>will = used to talk about what is going to happen in the f*****</t>
+          <t>w***** = used to talk about what is going to happen in the f*****</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1100,7 +1168,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>will = the mental power used to control and direct your t***** and actions</t>
+          <t>w******* = the mental power used to control and direct your t********* and actions</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1128,7 +1196,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>will = the mental power used to control and direct your thoughts and a*****</t>
+          <t>w****** = the mental power used to control and direct your thoughts and a*******</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1156,7 +1224,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>process = a series of actions taken in order to achieve a particular e*****</t>
+          <t>process = a series of actions taken in order to achieve a particular e**</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1184,7 +1252,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>structure = the arrangenment of and relations between the e***** of something complex</t>
+          <t>structure = the arrangenment of and relations between the e********* of something complex</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1240,7 +1308,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>s***** = the arrangenment of and relations between the elements of something complex</t>
+          <t>s************** = the arrangenment of and relations between the elements of something complex</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1268,7 +1336,7 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>a/an = before a ***** shows that was is referred to is not already known to the speaker</t>
+          <t>a/an = before a **** shows that was is referred to is not already known to the speaker</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -1296,7 +1364,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>a/an = before a noun shows that was is r***** to is not already known to the speaker</t>
+          <t>a******* = before a noun shows that was is r********* to is not already known to the speaker</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1324,7 +1392,7 @@
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>a/an = before a noun shows that was is referred to is not already k***** to the speaker</t>
+          <t>a/an = before a noun shows that was is referred to is not already k**** to the speaker</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
@@ -1352,7 +1420,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>a/an = before a noun shows that was is referred to is ***** already known to the speaker</t>
+          <t>a/an = before a noun shows that was is referred to is *** already known to the speaker</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
@@ -1380,7 +1448,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>the = before a ***** shows that was is referred to is already known to the speaker</t>
+          <t>the = before a **** shows that was is referred to is already known to the speaker</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -1408,7 +1476,7 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>the = before a noun shows that was is r***** to is already known to the speaker</t>
+          <t>t*******= before a noun shows that was is r********* to is already known to t*******speaker</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
@@ -1436,7 +1504,7 @@
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>the = before a noun shows that was is referred to is already k***** to the speaker</t>
+          <t>the = before a noun shows that was is referred to is already k**** to the speaker</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
@@ -1464,7 +1532,7 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>would = used to refer to the ***** from the view of the past</t>
+          <t>would = used to refer to the ******* from the view of the past</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
@@ -1492,7 +1560,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>would = used to refer to the future from the view of the *****</t>
+          <t>would = used to refer to the future from the view of the ****</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
@@ -1520,7 +1588,7 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>moment = a very brief period of *****</t>
+          <t>moment = a very brief period of ****</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
@@ -1548,7 +1616,7 @@
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>***** = a very brief period of time</t>
+          <t>********* = a very brief period of time</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
@@ -1576,7 +1644,7 @@
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>system = a set of things working t*****</t>
+          <t>system = a set of things working t*********</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
@@ -1604,7 +1672,7 @@
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>s*****m = a set of things working together</t>
+          <t>s*******m = a set of things working together</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
@@ -1632,7 +1700,7 @@
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>***** = toward a higher place</t>
+          <t>** = toward a higher place</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
@@ -1660,7 +1728,7 @@
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>up = t***** a higher place</t>
+          <t>u***** t***** a higher place</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
@@ -1688,7 +1756,7 @@
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>up = toward a h***** place</t>
+          <t>u***** toward a h***** place</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -1716,7 +1784,7 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>***** = in direction of, in relation to</t>
+          <t>********* = in direction of, in relation to</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -1744,7 +1812,7 @@
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>a***** = a detailed examination of the elements or structure of something</t>
+          <t>a************* = a detailed examination of the elements or structure of something</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
@@ -1772,7 +1840,7 @@
       </c>
       <c r="D46" s="5" t="inlineStr">
         <is>
-          <t>to look = to direct the eyes ***** something</t>
+          <t>to look = to direct the eyes ******* something</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
@@ -1828,7 +1896,7 @@
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>to view = to ***** at attentively</t>
+          <t>to view = to **** at attentively</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
@@ -1856,7 +1924,7 @@
       </c>
       <c r="D49" s="5" t="inlineStr">
         <is>
-          <t>factor = influence that c***** to a result</t>
+          <t>factor = influence that c********** to a result</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
@@ -1884,7 +1952,7 @@
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>to ***** = to move toward something</t>
+          <t>to **** = to move toward something</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
@@ -1912,7 +1980,7 @@
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>to come = to m***** toward something</t>
+          <t>to come = to m*** toward something</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
@@ -1940,7 +2008,7 @@
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>to come = to move ***** something</t>
+          <t>to come = to move ******* something</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
@@ -1968,7 +2036,7 @@
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>to ***** = to go in a specified direction</t>
+          <t>to **** = to go in a specified direction</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
@@ -1996,7 +2064,7 @@
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>to move = to go in a specified d*****</t>
+          <t>to move = to go in a specified d**************</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
@@ -2080,7 +2148,7 @@
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>p***** = used to express possibility</t>
+          <t>p********** = used to express possibility</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
@@ -2108,7 +2176,7 @@
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>perhaps = used to express p*****</t>
+          <t>perhaps = used to express p**********</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
@@ -2136,7 +2204,7 @@
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>o***** = a thing that may be chosen</t>
+          <t>o******* = a thing that may be chosen</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
@@ -2164,7 +2232,7 @@
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>option = a thing that ***** be chosen</t>
+          <t>option = a thing that *** be chosen</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
@@ -2220,7 +2288,7 @@
       </c>
       <c r="D62" s="5" t="inlineStr">
         <is>
-          <t>***** = the time taken by the earth to make one revolution around the sun</t>
+          <t>**** = the time taken by the earth to make one revolution around the sun</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
@@ -2248,7 +2316,7 @@
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>year = the time taken by the earth to make one revolution around the *****</t>
+          <t>year = the time taken by the earth to make one revolution around the ***</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
@@ -2276,7 +2344,7 @@
       </c>
       <c r="D64" s="5" t="inlineStr">
         <is>
-          <t>***** = person who leads a group</t>
+          <t>********* = person who leads a group</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
@@ -2332,7 +2400,7 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>leader = person who l***** a group</t>
+          <t>leader = person who l**** a group</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
@@ -2360,7 +2428,7 @@
       </c>
       <c r="D67" s="5" t="inlineStr">
         <is>
-          <t>s***** = an unspecified amount</t>
+          <t>s*** = an unspecified amount</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
@@ -2388,7 +2456,7 @@
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>some = an unspecified a*****</t>
+          <t>s***** = an unspecified a*****</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">

--- a/Questions/English/Definitions 1000.xlsx
+++ b/Questions/English/Definitions 1000.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -537,8 +469,8 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -660,7 +592,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>to be able to = to have the necessary a******* to do something</t>
+          <t>to be able to = to have the necessary a***** to do something</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
@@ -718,7 +650,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>to be able to = to have the n************** ability to do something</t>
+          <t>to be able to = to have the n***** ability to do something</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -1000,7 +932,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>to know = to have i********** in your mind</t>
+          <t>to know = to have i***** in your mind</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1112,12 +1044,12 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>w***** = used to talk about what is going to h***** in the future</t>
+          <t>w***** = used to talk about what is going to happen in the future</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>happen</t>
+          <t>would</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1168,7 +1100,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>w******* = the mental power used to control and direct your t********* and actions</t>
+          <t>will = the mental power used to control and direct your t***** and actions</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1196,7 +1128,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>w****** = the mental power used to control and direct your thoughts and a*******</t>
+          <t>will = the mental power used to control and direct your thoughts and a*****</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1252,7 +1184,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>structure = the arrangenment of and relations between the e********* of something complex</t>
+          <t>structure = the arrangenment of and relations between the e***** of something complex</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1308,7 +1240,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>s************** = the arrangenment of and relations between the elements of something complex</t>
+          <t>s***** = the arrangenment of and relations between the elements of something complex</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1355,7 +1287,7 @@
         <v>631</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1364,7 +1296,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>a******* = before a noun shows that was is r********* to is not already known to the speaker</t>
+          <t>a***** = before a noun shows that was is r***** to is not already known to the speaker</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1383,7 +1315,7 @@
         <v>632</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1411,7 +1343,7 @@
         <v>633</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1439,7 +1371,7 @@
         <v>634</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1467,7 +1399,7 @@
         <v>635</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1476,7 +1408,7 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>t*******= before a noun shows that was is r********* to is already known to t*******speaker</t>
+          <t>t*****= before a noun shows that was is r***** to is already known to t*****speaker</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
@@ -1495,7 +1427,7 @@
         <v>636</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1532,7 +1464,7 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>would = used to refer to the ******* from the view of the past</t>
+          <t>would = used to refer to the ***** from the view of the past</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
@@ -1616,7 +1548,7 @@
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>********* = a very brief period of time</t>
+          <t>***** = a very brief period of time</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
@@ -1644,7 +1576,7 @@
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>system = a set of things working t*********</t>
+          <t>system = a set of things working t*****</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
@@ -1672,7 +1604,7 @@
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>s*******m = a set of things working together</t>
+          <t>s*****m = a set of things working together</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
@@ -1728,7 +1660,7 @@
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>u***** t***** a higher place</t>
+          <t>up = t***** a higher place</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
@@ -1756,7 +1688,7 @@
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>u***** toward a h***** place</t>
+          <t>up = toward a h***** place</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -1784,7 +1716,7 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>********* = in direction of, in relation to</t>
+          <t>t***** = in direction of, in relation to</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -1812,7 +1744,7 @@
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>a************* = a detailed examination of the elements or structure of something</t>
+          <t>a***** = a detailed examination of the elements or structure of something</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
@@ -1840,7 +1772,7 @@
       </c>
       <c r="D46" s="5" t="inlineStr">
         <is>
-          <t>to look = to direct the eyes ******* something</t>
+          <t>to look = to direct the eyes ***** something</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
@@ -1868,7 +1800,7 @@
       </c>
       <c r="D47" s="5" t="inlineStr">
         <is>
-          <t>to see = to perceive with the *****s</t>
+          <t>to see = to perceive with the ***s</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
@@ -1924,7 +1856,7 @@
       </c>
       <c r="D49" s="5" t="inlineStr">
         <is>
-          <t>factor = influence that c********** to a result</t>
+          <t>factor = influence that c***** to a result</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
@@ -1952,7 +1884,7 @@
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>to **** = to move toward something</t>
+          <t>to c*** = to move toward something</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
@@ -2008,7 +1940,7 @@
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>to come = to move ******* something</t>
+          <t>to come = to move ***** something</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
@@ -2036,7 +1968,7 @@
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>to **** = to go in a specified direction</t>
+          <t>to m*** = to go in a specified direction</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
@@ -2064,7 +1996,7 @@
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>to move = to go in a specified d**************</t>
+          <t>to move = to go in a specified d*****</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
@@ -2148,7 +2080,7 @@
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>p********** = used to express possibility</t>
+          <t>per**** = used to express possibility</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
@@ -2176,7 +2108,7 @@
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>perhaps = used to express p**********</t>
+          <t>perhaps = used to express poss*****y</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
@@ -2204,7 +2136,7 @@
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>o******* = a thing that may be chosen</t>
+          <t>o*****n = a thing that may be chosen</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
@@ -2260,7 +2192,7 @@
       </c>
       <c r="D61" s="5" t="inlineStr">
         <is>
-          <t>option = a thing that may be *****n</t>
+          <t>option = a thing that may be c*****n</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
@@ -2344,7 +2276,7 @@
       </c>
       <c r="D64" s="5" t="inlineStr">
         <is>
-          <t>********* = person who leads a group</t>
+          <t>***** = person who leads a group</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
@@ -2456,7 +2388,7 @@
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>s***** = an unspecified a*****</t>
+          <t>some = an unspecified a*****</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
